--- a/results/PlantsOutdoors.tc.rotation.xlsx
+++ b/results/PlantsOutdoors.tc.rotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
   </si>
 </sst>
 </file>
@@ -589,11 +598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507341928"/>
-        <c:axId val="507339968"/>
+        <c:axId val="202170464"/>
+        <c:axId val="202170856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507341928"/>
+        <c:axId val="202170464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507339968"/>
+        <c:crossAx val="202170856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507339968"/>
+        <c:axId val="202170856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -685,7 +694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507341928"/>
+        <c:crossAx val="202170464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,11 +1593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="507338792"/>
-        <c:axId val="507970288"/>
+        <c:axId val="202164976"/>
+        <c:axId val="202165368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="507338792"/>
+        <c:axId val="202164976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507970288"/>
+        <c:crossAx val="202165368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507970288"/>
+        <c:axId val="202165368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1618,7 +1627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507338792"/>
+        <c:crossAx val="202164976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2107,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507967152"/>
-        <c:axId val="507967544"/>
+        <c:axId val="203743592"/>
+        <c:axId val="203750256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507967152"/>
+        <c:axId val="203743592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507967544"/>
+        <c:crossAx val="203750256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2157,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507967544"/>
+        <c:axId val="203750256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2203,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507967152"/>
+        <c:crossAx val="203743592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2258,7 +2267,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2298,15 +2307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>233361</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2326,7 +2335,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6324600" y="1104899"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3081,7 @@
         <v>24.385000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3102,7 +3111,7 @@
         <v>8.8111800000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3132,7 +3141,7 @@
         <v>1578.23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3162,7 +3171,7 @@
         <v>15.8468</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3192,7 +3201,7 @@
         <v>631.471</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3222,7 +3231,7 @@
         <v>2582.06</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3252,7 +3261,7 @@
         <v>3716.69</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3282,7 +3291,7 @@
         <v>3448.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3312,7 +3321,7 @@
         <v>32.0672</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3342,7 +3351,7 @@
         <v>851.577</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3372,7 +3381,7 @@
         <v>313.86599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3402,7 +3411,7 @@
         <v>8.6745999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3432,7 +3441,7 @@
         <v>58.303699999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3463,8 +3472,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3504,552 +3531,888 @@
         <f>MIN(G31:I31)</f>
         <v>0.59215372761405083</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.56949052897869734</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B44" si="2">B5</f>
+        <f t="shared" ref="B32:B44" si="3">B5</f>
         <v>10.601800000000001</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C5/$B32</f>
+        <f t="shared" ref="C32:I32" si="4">C5/$B32</f>
         <v>0.97772076439849831</v>
       </c>
       <c r="D32">
+        <f t="shared" si="4"/>
+        <v>1.875596596804316</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.78577317059367269</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.89821917032956666</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.79574128921503884</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>1.0240147899413308</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>1.0640174310022825</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J51" si="5">MIN(G32:I32)</f>
+        <v>0.79574128921503884</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L51" si="6">MIN(C32:J32)</f>
+        <v>0.78577317059367269</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P51" si="7">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q51" si="8">IF($L32=J32,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A51" si="9">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>1.875596596804316</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0.78577317059367269</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.89821917032956666</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>0.79574128921503884</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>1.0240147899413308</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>1.0640174310022825</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J51" si="4">MIN(G32:I32)</f>
-        <v>0.79574128921503884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A51" si="5">A32+1</f>
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
         <v>10.3734</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
+        <f t="shared" ref="C33:I33" si="10">C6/$B33</f>
         <v>0.28923111033990784</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.62533788343262575</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.50525382227620641</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.8649661634565331</v>
       </c>
       <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.26361270171785528</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>1.417037808240307</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.33401777623537127</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.26361270171785528</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
         <v>0.26361270171785528</v>
       </c>
-      <c r="H33">
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>25.9544</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="11">C7/$B34</f>
+        <v>0.83490275251980395</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>1.2697731405850261</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.84342153931510644</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>0.74929106432820636</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>1.064501587399439</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.85059180716949723</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>1.2340643590296829</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.85059180716949723</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>1.417037808240307</v>
-      </c>
-      <c r="I33">
+        <v>0.74929106432820636</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>41.145200000000003</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C8/$B35</f>
+        <v>0.81124651235138001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>1.3687428910298163</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>1.8977523502133904</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>1.6259272041453194</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>1.2372937791042455</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>0.98161389420880196</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.83420180239736341</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.83420180239736341</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>0.33401777623537127</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0.26361270171785528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v>0.81124651235138001</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>7.2037599999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="13">C9/$B36</f>
+        <v>0.53672110120270533</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.69161937654780281</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.63147856119581991</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>0.93415799526913723</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.42311376281275337</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.50913134252112791</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.49426271835819074</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
+        <v>0.42311376281275337</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0.42311376281275337</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>25.9544</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
-        <v>0.83490275251980395</v>
-      </c>
-      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>13.378</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="14">C10/$B37</f>
+        <v>0.88504260726565998</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>1.3025788608162654</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>1.1484377335924651</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>0.94716699058155185</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.79419943190312459</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>1.0645088952010764</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>1.1603004933472867</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.79419943190312459</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0.79419943190312459</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="7"/>
-        <v>1.2697731405850261</v>
-      </c>
-      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>55.911700000000003</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="15">C11/$B38</f>
+        <v>0.76079067529694144</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>0.62324164709711916</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.73972889395242847</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0.73203819594109987</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.61418629732238517</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.81643376967611425</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.53661577093881951</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.53661577093881951</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.53661577093881951</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="7"/>
-        <v>0.84342153931510644</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>0.74929106432820636</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>1.064501587399439</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>0.85059180716949723</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>1.2340643590296829</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0.85059180716949723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>41.145200000000003</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
-        <v>0.81124651235138001</v>
-      </c>
-      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="8"/>
-        <v>1.3687428910298163</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="8"/>
-        <v>1.8977523502133904</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>1.6259272041453194</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>1.2372937791042455</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>0.98161389420880196</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.83420180239736341</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.83420180239736341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>7.2037599999999999</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
-        <v>0.53672110120270533</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>0.69161937654780281</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>0.63147856119581991</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>0.93415799526913723</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>0.42311376281275337</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>0.50913134252112791</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>0.49426271835819074</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.42311376281275337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>13.378</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
-        <v>0.88504260726565998</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>1.3025788608162654</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="10"/>
-        <v>1.1484377335924651</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="10"/>
-        <v>0.94716699058155185</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>0.79419943190312459</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>1.0645088952010764</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>1.1603004933472867</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.79419943190312459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>55.911700000000003</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
-        <v>0.76079067529694144</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="11"/>
-        <v>0.62324164709711916</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
-        <v>0.73972889395242847</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>0.73203819594109987</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="11"/>
-        <v>0.61418629732238517</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
-        <v>0.81643376967611425</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0.53661577093881951</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.53661577093881951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>39.345799999999997</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="16">C12/$B39</f>
+        <v>9.249576829038933E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>0.11381824743682936</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.43852456933141537</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>1.0588804904208329</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>7.4906343243751561E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>0.84332508171138987</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.25745314620620247</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>7.4906343243751561E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>7.4906343243751561E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>39.345799999999997</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
-        <v>9.249576829038933E-2</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="12"/>
-        <v>0.11381824743682936</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>0.43852456933141537</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="12"/>
-        <v>1.0588804904208329</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="12"/>
-        <v>7.4906343243751561E-2</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>0.84332508171138987</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="12"/>
-        <v>0.25745314620620247</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>7.4906343243751561E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>76.454400000000007</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="17">C13/$B40</f>
+        <v>9.356296040515652E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>0.13671678804620793</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.85122504394776477</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>1.0052044094257491</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>0.10513534865226853</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>4.6607258705842955</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>1.9418895446174451</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.10513534865226853</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>9.356296040515652E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>76.454400000000007</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
-        <v>9.356296040515652E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
-        <v>0.13671678804620793</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.85122504394776477</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>1.0052044094257491</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>0.10513534865226853</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>4.6607258705842955</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>1.9418895446174451</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.10513534865226853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>51.828299999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:I41" si="18">C14/$B41</f>
+        <v>0.57009780370955643</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>7.7363332387903911</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.98093705562405098</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>0.57917392621405683</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.34985712438957095</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>4.407611285726138</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>1.4405160887005748</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
+        <v>0.34985712438957095</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.34985712438957095</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>51.828299999999999</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
-        <v>0.57009780370955643</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>7.7363332387903911</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
-        <v>0.98093705562405098</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="14"/>
-        <v>0.57917392621405683</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>0.34985712438957095</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>4.407611285726138</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="14"/>
-        <v>1.4405160887005748</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.34985712438957095</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>19.0686</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:I42" si="19">C15/$B42</f>
+        <v>0.84784934394764166</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>110.79208751560157</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="19"/>
+        <v>1.00683322320464</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>0.91478136832279244</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>0.63590405168706665</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="19"/>
+        <v>0.69116243457831206</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="19"/>
+        <v>0.73118634823741646</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
+        <v>0.63590405168706665</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.63590405168706665</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>19.0686</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I42" si="15">C15/$B42</f>
-        <v>0.84784934394764166</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>110.79208751560157</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="15"/>
-        <v>1.00683322320464</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
-        <v>0.91478136832279244</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>0.63590405168706665</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="15"/>
-        <v>0.69116243457831206</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="15"/>
-        <v>0.73118634823741646</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.63590405168706665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>45.997500000000002</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="20">C16/$B43</f>
+        <v>0.70153377900972869</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.82960378281428337</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>1.2601967498233599</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0.62267079732594166</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>1.0132898527093863</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>0.53013750747323229</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
+        <v>0.53013750747323229</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.53013750747323229</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>45.997500000000002</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
-        <v>0.70153377900972869</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
-        <v>0.82960378281428337</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="16"/>
-        <v>1.2601967498233599</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>0.62267079732594166</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="16"/>
-        <v>1.0132898527093863</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="16"/>
-        <v>0.53013750747323229</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.53013750747323229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>17.029299999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="21">C17/$B44</f>
+        <v>0.46343361148138795</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="21"/>
+        <v>0.45526709847145808</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>0.92263921593958653</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>0.94559964296829602</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="21"/>
+        <v>0.42932533926820249</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="21"/>
+        <v>0.75342497930038232</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>0.51741292948036621</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
+        <v>0.42932533926820249</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.42932533926820249</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>17.029299999999999</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
-        <v>0.46343361148138795</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>0.45526709847145808</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>0.92263921593958653</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>0.94559964296829602</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>0.42932533926820249</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>0.75342497930038232</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.51741292948036621</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.42932533926820249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B45">
@@ -4057,41 +4420,65 @@
         <v>9.3236600000000003</v>
       </c>
       <c r="C45">
-        <f>C19/$B45</f>
+        <f t="shared" ref="C45:I47" si="22">C19/$B45</f>
         <v>0.47778125757481504</v>
       </c>
       <c r="D45">
-        <f>D19/$B45</f>
+        <f t="shared" si="22"/>
         <v>87.234197729217925</v>
       </c>
       <c r="E45">
-        <f>E19/$B45</f>
+        <f t="shared" si="22"/>
         <v>0.5439430438261369</v>
       </c>
       <c r="F45">
-        <f>F19/$B45</f>
+        <f t="shared" si="22"/>
         <v>0.9597722353667979</v>
       </c>
       <c r="G45">
-        <f>G19/$B45</f>
+        <f t="shared" si="22"/>
         <v>0.42124230184283851</v>
       </c>
       <c r="H45">
-        <f>H19/$B45</f>
+        <f t="shared" si="22"/>
         <v>11.030539509162711</v>
       </c>
       <c r="I45">
-        <f>I19/$B45</f>
+        <f t="shared" si="22"/>
         <v>1.6996329767494738</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42124230184283851</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.42124230184283851</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="B46">
@@ -4099,41 +4486,65 @@
         <v>26.903099999999998</v>
       </c>
       <c r="C46">
-        <f>C20/$B46</f>
+        <f t="shared" si="22"/>
         <v>0.51756860733521426</v>
       </c>
       <c r="D46">
-        <f>D20/$B46</f>
+        <f t="shared" si="22"/>
         <v>0.63152573495247755</v>
       </c>
       <c r="E46">
-        <f>E20/$B46</f>
+        <f t="shared" si="22"/>
         <v>0.5764428634618316</v>
       </c>
       <c r="F46">
-        <f>F20/$B46</f>
+        <f t="shared" si="22"/>
         <v>0.92003523757485195</v>
       </c>
       <c r="G46">
-        <f>G20/$B46</f>
+        <f t="shared" si="22"/>
         <v>0.51314904230367508</v>
       </c>
       <c r="H46">
-        <f>H20/$B46</f>
+        <f t="shared" si="22"/>
         <v>72.846995327675998</v>
       </c>
       <c r="I46">
-        <f>I20/$B46</f>
+        <f t="shared" si="22"/>
         <v>23.472053406484758</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51314904230367508</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.51314904230367508</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="B47">
@@ -4141,41 +4552,65 @@
         <v>19.1113</v>
       </c>
       <c r="C47">
-        <f>C21/$B47</f>
+        <f t="shared" si="22"/>
         <v>0.43309141711971449</v>
       </c>
       <c r="D47">
-        <f>D21/$B47</f>
+        <f t="shared" si="22"/>
         <v>0.43818316911984012</v>
       </c>
       <c r="E47">
-        <f>E21/$B47</f>
+        <f t="shared" si="22"/>
         <v>0.5256732927639669</v>
       </c>
       <c r="F47">
-        <f>F21/$B47</f>
+        <f t="shared" si="22"/>
         <v>1.1439410191876012</v>
       </c>
       <c r="G47">
-        <f>G21/$B47</f>
+        <f t="shared" si="22"/>
         <v>0.29946157508908339</v>
       </c>
       <c r="H47">
-        <f>H21/$B47</f>
+        <f t="shared" si="22"/>
         <v>38.233558156692638</v>
       </c>
       <c r="I47">
-        <f>I21/$B47</f>
+        <f t="shared" si="22"/>
         <v>135.10645534317393</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29946157508908339</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0.29946157508908339</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="B48">
@@ -4183,41 +4618,65 @@
         <v>150.83500000000001</v>
       </c>
       <c r="C48">
-        <f>C23/$B48</f>
+        <f t="shared" ref="C48:I51" si="23">C23/$B48</f>
         <v>5.3687207876156065E-2</v>
       </c>
       <c r="D48">
-        <f>D23/$B48</f>
+        <f t="shared" si="23"/>
         <v>5.7417906984453204E-2</v>
       </c>
       <c r="E48">
-        <f>E23/$B48</f>
+        <f t="shared" si="23"/>
         <v>0.50241721085954849</v>
       </c>
       <c r="F48">
-        <f>F23/$B48</f>
+        <f t="shared" si="23"/>
         <v>1.1247654722047269</v>
       </c>
       <c r="G48">
-        <f>G23/$B48</f>
+        <f t="shared" si="23"/>
         <v>5.4154009347963002E-2</v>
       </c>
       <c r="H48">
-        <f>H23/$B48</f>
+        <f t="shared" si="23"/>
         <v>12.531441641528822</v>
       </c>
       <c r="I48">
-        <f>I23/$B48</f>
+        <f t="shared" si="23"/>
         <v>22.864719726853846</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4154009347963002E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>5.3687207876156065E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="B49">
@@ -4225,41 +4684,65 @@
         <v>12.751300000000001</v>
       </c>
       <c r="C49">
-        <f>C24/$B49</f>
+        <f t="shared" si="23"/>
         <v>0.82463748794240588</v>
       </c>
       <c r="D49">
-        <f>D24/$B49</f>
+        <f t="shared" si="23"/>
         <v>37.614204041940823</v>
       </c>
       <c r="E49">
-        <f>E24/$B49</f>
+        <f t="shared" si="23"/>
         <v>0.88864664779277402</v>
       </c>
       <c r="F49">
-        <f>F24/$B49</f>
+        <f t="shared" si="23"/>
         <v>1.054041548704838</v>
       </c>
       <c r="G49">
-        <f>G24/$B49</f>
+        <f t="shared" si="23"/>
         <v>0.86249245175001754</v>
       </c>
       <c r="H49">
-        <f>H24/$B49</f>
+        <f t="shared" si="23"/>
         <v>52.82567267651141</v>
       </c>
       <c r="I49">
-        <f>I24/$B49</f>
+        <f t="shared" si="23"/>
         <v>2.5148180969783471</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86249245175001754</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.82463748794240588</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="B50">
@@ -4267,41 +4750,65 @@
         <v>46.777000000000001</v>
       </c>
       <c r="C50">
-        <f>C25/$B50</f>
+        <f t="shared" si="23"/>
         <v>0.12017016910019881</v>
       </c>
       <c r="D50">
-        <f>D25/$B50</f>
+        <f t="shared" si="23"/>
         <v>1.7892554032964918</v>
       </c>
       <c r="E50">
-        <f>E25/$B50</f>
+        <f t="shared" si="23"/>
         <v>0.11913675524296129</v>
       </c>
       <c r="F50">
-        <f>F25/$B50</f>
+        <f t="shared" si="23"/>
         <v>1.0164290142591443</v>
       </c>
       <c r="G50">
-        <f>G25/$B50</f>
+        <f t="shared" si="23"/>
         <v>7.2599781944117828E-2</v>
       </c>
       <c r="H50">
-        <f>H25/$B50</f>
+        <f t="shared" si="23"/>
         <v>78.258759646834989</v>
       </c>
       <c r="I50">
-        <f>I25/$B50</f>
+        <f t="shared" si="23"/>
         <v>18.205036663317443</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2599781944117828E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>7.2599781944117828E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="B51">
@@ -4309,36 +4816,147 @@
         <v>192.43799999999999</v>
       </c>
       <c r="C51">
-        <f>C26/$B51</f>
+        <f t="shared" si="23"/>
         <v>1.7410074933225248E-2</v>
       </c>
       <c r="D51">
-        <f>D26/$B51</f>
+        <f t="shared" si="23"/>
         <v>8.3204980305345108E-2</v>
       </c>
       <c r="E51">
-        <f>E26/$B51</f>
+        <f t="shared" si="23"/>
         <v>0.19343269000924973</v>
       </c>
       <c r="F51">
-        <f>F26/$B51</f>
+        <f t="shared" si="23"/>
         <v>1.0399349400845987</v>
       </c>
       <c r="G51">
-        <f>G26/$B51</f>
+        <f t="shared" si="23"/>
         <v>1.2694218397613777E-2</v>
       </c>
       <c r="H51">
-        <f>H26/$B51</f>
+        <f t="shared" si="23"/>
         <v>4.9126056184329503</v>
       </c>
       <c r="I51">
-        <f>I26/$B51</f>
+        <f t="shared" si="23"/>
         <v>1.6309980357309888</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2694218397613777E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>1.2694218397613777E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>ROUND(AVERAGE(B31:B51)*1000,2)</f>
+        <v>41758.19</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="24">ROUND(AVERAGE(C31:C51)*1000,2)</f>
+        <v>518.02</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="24"/>
+        <v>12791.22</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="24"/>
+        <v>742.37</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="24"/>
+        <v>984.14</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="24"/>
+        <v>487.54</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="24"/>
+        <v>13823.16</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="24"/>
+        <v>10341.56</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="24"/>
+        <v>450.06</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <f>AVERAGE(M31:M51)*100</f>
+        <v>23.809523809523807</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:R52" si="25">AVERAGE(N31:N51)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="25"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="25"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="25"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R52">
+        <f>SUM(M52:Q52)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f>ROUND(M52,2)</f>
+        <v>23.81</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53:Q53" si="26">ROUND(N52,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="26"/>
+        <v>4.76</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="26"/>
+        <v>4.76</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="26"/>
+        <v>66.67</v>
       </c>
     </row>
   </sheetData>
